--- a/Figures/Fig. 3/Fig. 3 rural change rate decomposition (adj).xlsx
+++ b/Figures/Fig. 3/Fig. 3 rural change rate decomposition (adj).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csuen/Desktop/Sun-NCR-23/Analysis/Fig. 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csuen/Documents/GitHub/ozone-cardiovascular/Figures/Fig. 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBE8606-9B51-4A43-96C5-AE4AB5CD0F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D4C5F-69AC-FB4E-82BD-E5E8731AB1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="2620" windowWidth="27840" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>Central Asia</t>
   </si>
   <si>
-    <t>Eastern Asia</t>
-  </si>
-  <si>
     <t>Eastern Europe</t>
   </si>
   <si>
@@ -148,6 +145,10 @@
   </si>
   <si>
     <t>Sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>East Asia</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1153,22 +1154,22 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1176,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>-9.8000000000000007</v>
@@ -1285,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>4569.4333952972802</v>
@@ -1347,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>9707.5643897029204</v>
@@ -1409,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>11043.077501808501</v>
@@ -1471,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>26377.338482282401</v>
@@ -1595,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>13650.206843484901</v>
@@ -1657,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1580.25398716017</v>
@@ -1781,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>5709.07052169708</v>
@@ -1905,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>13859.7078707744</v>
@@ -1967,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>67611.743705723493</v>
@@ -2029,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>81479.617965879093</v>
@@ -2153,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>8639.0567806175295</v>
@@ -2215,7 +2216,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>13419.9813854433</v>
@@ -2339,7 +2340,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>123.15313450191</v>
@@ -2401,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>5.7889818007336498</v>
